--- a/Documentation/SQLite vs PostgreSQL performance.xlsx
+++ b/Documentation/SQLite vs PostgreSQL performance.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maartene/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maartene/Development/Vapor/MissionToMars_nosql/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5C84D-A963-8E43-8726-88ECDDE08999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD77CE5-5353-D44D-9797-D3A379C43F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="920" windowWidth="16480" windowHeight="15920" xr2:uid="{25DD82B1-CBCB-1147-B23B-115776F97082}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="16480" windowHeight="15920" xr2:uid="{25DD82B1-CBCB-1147-B23B-115776F97082}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>SQLite</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Users</t>
+  </si>
+  <si>
+    <t>NoSQL</t>
+  </si>
+  <si>
+    <t>(24MB uncompressed, 0,5MB compressed)</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46F7AAF-086A-DA41-9753-8520578156FA}">
-  <dimension ref="A2:K15"/>
+  <dimension ref="A2:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,15 +451,18 @@
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -487,8 +496,23 @@
       <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -524,8 +548,25 @@
         <f>J4/A4</f>
         <v>0.143615007400512</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1.55401229858398E-3</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>3.9279460906982396E-3</v>
+      </c>
+      <c r="O4">
+        <f>SUM(L4:N4)</f>
+        <v>5.4819583892822196E-3</v>
+      </c>
+      <c r="P4">
+        <f>O4/A4</f>
+        <v>5.4819583892822196E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
@@ -561,8 +602,25 @@
         <f t="shared" ref="K5:K15" si="1">J5/A5</f>
         <v>2.7030730247497503E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>5.2905082702636697E-4</v>
+      </c>
+      <c r="M5">
+        <v>0.147971987724304</v>
+      </c>
+      <c r="N5">
+        <v>0.106335997581481</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O15" si="2">SUM(L5:N5)</f>
+        <v>0.25483703613281139</v>
+      </c>
+      <c r="P5">
+        <f>N5/A5</f>
+        <v>1.0633599758148101E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
@@ -598,8 +656,25 @@
         <f t="shared" si="1"/>
         <v>2.6172699928283653E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>4.5704841613769499E-4</v>
+      </c>
+      <c r="M6">
+        <v>0.15680599212646401</v>
+      </c>
+      <c r="N6">
+        <v>0.18923306465148901</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>0.34649610519409069</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P5:P15" si="3">O6/A6</f>
+        <v>1.7324805259704535E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3000</v>
       </c>
@@ -635,8 +710,25 @@
         <f t="shared" si="1"/>
         <v>2.5538503328959134E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>4.2498111724853499E-4</v>
+      </c>
+      <c r="M7">
+        <v>0.172423005104064</v>
+      </c>
+      <c r="N7">
+        <v>0.28804492950439398</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0.46089291572570651</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>1.5363097190856885E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4000</v>
       </c>
@@ -672,8 +764,25 @@
         <f t="shared" si="1"/>
         <v>2.5597302615642499E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>5.3906440734863205E-4</v>
+      </c>
+      <c r="M8">
+        <v>0.27286398410797102</v>
+      </c>
+      <c r="N8">
+        <v>0.347777009010314</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0.62118005752563366</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>1.552950143814084E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5000</v>
       </c>
@@ -709,8 +818,25 @@
         <f t="shared" si="1"/>
         <v>2.6309047937392999E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>9.4401836395263596E-4</v>
+      </c>
+      <c r="M9">
+        <v>0.32786202430725098</v>
+      </c>
+      <c r="N9">
+        <v>0.48036396503448398</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0.80917000770568759</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1.6183400154113752E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6000</v>
       </c>
@@ -746,8 +872,25 @@
         <f t="shared" si="1"/>
         <v>2.5821791688601168E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>5.1796436309814399E-4</v>
+      </c>
+      <c r="M10">
+        <v>0.454134941101074</v>
+      </c>
+      <c r="N10">
+        <v>0.51765501499176003</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0.97230792045593217</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>1.6205132007598869E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7000</v>
       </c>
@@ -783,8 +926,25 @@
         <f t="shared" si="1"/>
         <v>2.599836996623443E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>4.8995018005370996E-4</v>
+      </c>
+      <c r="M11">
+        <v>0.52068495750427202</v>
+      </c>
+      <c r="N11">
+        <v>0.65508401393890303</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>1.1762589216232286</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>1.6803698880331837E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8000</v>
       </c>
@@ -820,8 +980,25 @@
         <f t="shared" si="1"/>
         <v>2.6071353852748749E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>5.1903724670410102E-4</v>
+      </c>
+      <c r="M12">
+        <v>0.59968805313110296</v>
+      </c>
+      <c r="N12">
+        <v>0.77089393138885498</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>1.3711010217666622</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>1.7138762772083278E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9000</v>
       </c>
@@ -857,8 +1034,25 @@
         <f t="shared" si="1"/>
         <v>2.6880393293168777E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>5.2392482757568305E-4</v>
+      </c>
+      <c r="M13">
+        <v>0.76369595527648904</v>
+      </c>
+      <c r="N13">
+        <v>0.83494400978088301</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>1.5991638898849478</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>1.7768487665388309E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
@@ -894,8 +1088,25 @@
         <f t="shared" si="1"/>
         <v>2.65792289972305E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>5.2595138549804601E-4</v>
+      </c>
+      <c r="M14">
+        <v>0.83265197277069003</v>
+      </c>
+      <c r="N14">
+        <v>0.95337891578674305</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1.7865568399429312</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>1.7865568399429312E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>20000</v>
       </c>
@@ -930,6 +1141,26 @@
       <c r="K15">
         <f t="shared" si="1"/>
         <v>2.450893849134445E-3</v>
+      </c>
+      <c r="L15">
+        <v>4.5704841613769499E-4</v>
+      </c>
+      <c r="M15">
+        <v>1.67105996608734</v>
+      </c>
+      <c r="N15">
+        <v>1.8518220186233501</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>3.5233390331268275</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>1.7616695165634138E-4</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
